--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -540,24 +540,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bgas 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -575,20 +607,44 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katheirne </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -4082,11 +4138,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>OP 605 CxL'd</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1307,7 +1307,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1572,11 +1572,7 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1948,7 +1944,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1762,7 +1762,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2111,12 +2111,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2175,21 +2176,9 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2242,22 +2231,9 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2303,7 +2279,11 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2350,7 +2330,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2392,7 +2376,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2431,7 +2415,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #396, FORT ATKINSON</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2487,7 +2471,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>1505 MADISON AVENUE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2534,7 +2518,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>PICK #396, FORT ATKINSON</t>
+          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2600,7 +2584,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1505 MADISON AVENUE</t>
+          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2660,7 +2644,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2725,11 +2709,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2788,13 +2768,21 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -2852,9 +2840,21 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Brianna E</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2909,17 +2909,19 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2972,19 +2974,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3040,21 +3038,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry,
-Trainer</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3109,15 +3101,20 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3173,15 +3170,20 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3236,20 +3238,15 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3300,20 +3297,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3368,12 +3360,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3423,12 +3415,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3482,12 +3474,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3540,16 +3532,8 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3603,16 +3587,8 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3663,7 +3639,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
@@ -3718,7 +3698,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3777,7 +3761,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3836,7 +3820,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3896,7 +3880,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3939,7 +3923,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3994,7 +3978,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>RX IS IN PHYSICIANS OFFICE BUILDING</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4040,11 +4024,7 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -4074,13 +4054,21 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>RX IS IN PHYSICIANS OFFICE BUILDING</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -4109,9 +4097,22 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4140,21 +4141,9 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -4183,22 +4172,9 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1992,7 +1992,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2337,9 +2337,21 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2421,11 +2433,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2479,7 +2487,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2526,7 +2534,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2592,7 +2600,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>FESTIVAL #2735, MAUSTON - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2652,7 +2660,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>750 N UNION ST</t>
+          <t>FESTIVAL #2735, MAUSTON - LIFO</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2715,7 +2723,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8fV8TwF5DKH2</t>
+          <t>750 N UNION ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2785,7 +2793,11 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8fV8TwF5DKH2</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
@@ -2856,21 +2868,9 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2927,17 +2927,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Brianna E</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2986,18 +2986,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna E</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>work w/ Qiana</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3027,7 +3026,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3050,17 +3049,18 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3118,18 +3118,17 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3159,7 +3158,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3187,17 +3186,18 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3250,15 +3250,19 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
@@ -3286,7 +3290,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3309,19 +3313,15 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3372,15 +3372,19 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3404,7 +3408,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3427,19 +3431,15 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -3468,9 +3468,21 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
@@ -3486,12 +3498,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3538,12 +3550,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3580,11 +3592,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3593,12 +3601,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3633,7 +3641,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3648,12 +3656,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3692,7 +3700,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3707,18 +3715,17 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3753,7 +3760,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3768,17 +3775,18 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -3812,7 +3820,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3827,18 +3835,17 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3872,7 +3879,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3885,9 +3892,22 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
@@ -3917,7 +3937,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3959,21 +3983,9 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -3984,11 +3996,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -4008,18 +4016,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -4030,7 +4037,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4050,9 +4057,22 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -4071,7 +4091,11 @@
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,14 +1302,10 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1402,10 +1398,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1485,14 +1485,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1569,10 +1565,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1644,14 +1644,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1723,10 +1719,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1790,14 +1790,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1865,7 +1861,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1941,14 +1937,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -2008,10 +2000,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -2071,12 +2067,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2144,14 +2140,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2196,16 +2188,8 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2303,7 +2287,11 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2356,7 +2344,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2400,7 +2388,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2439,7 +2427,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
+          <t>975 PORT WASHINGTON ROAD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2495,7 +2483,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>975 PORT WASHINGTON ROAD</t>
+          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2540,11 +2528,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2605,9 +2589,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2640,14 +2636,10 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2667,19 +2659,15 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2711,10 +2699,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sonia</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2730,12 +2722,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2766,13 +2758,13 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>@ Store w/ Sonia,
-Trainer</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2800,16 +2792,8 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2842,15 +2826,10 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2859,14 +2838,10 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Brianna E</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2902,10 +2877,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store w/ Carlie</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2914,16 +2893,10 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry,
-Trainer</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2942,7 +2915,11 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2963,12 +2940,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2979,7 +2956,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2991,19 +2968,20 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Brianna E</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>work w/ Qiana</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE MEET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3026,7 +3004,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3042,10 +3020,15 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3054,20 +3037,19 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3090,7 +3072,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3106,36 +3088,37 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>Ian</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Driver,
 Wht Camry</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2709, FORT ATKINSON</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3158,7 +3141,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3174,15 +3157,10 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3191,20 +3169,19 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON</t>
+          <t>328 WASHINGTON ST - LIFO</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3227,7 +3204,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3243,7 +3220,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3255,19 +3232,15 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST - LIFO</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3290,7 +3263,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3306,7 +3279,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3318,17 +3291,17 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3349,7 +3322,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3365,7 +3338,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3377,18 +3350,26 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3408,7 +3389,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3424,7 +3405,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3436,24 +3417,29 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3468,32 +3454,12 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3503,7 +3469,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3514,18 +3480,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>work w/ Ashley</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3555,7 +3520,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3566,19 +3531,15 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>work w/ Ashley</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3592,11 +3553,19 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3606,7 +3575,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3617,15 +3586,19 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3641,7 +3614,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3649,7 +3622,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3661,7 +3634,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3672,17 +3645,18 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3700,7 +3674,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3708,7 +3682,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3720,29 +3694,29 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3760,7 +3734,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3768,7 +3742,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3780,24 +3754,23 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3820,7 +3793,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3828,7 +3801,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3840,7 +3813,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3851,12 +3824,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3879,7 +3852,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3887,36 +3860,23 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3937,17 +3897,13 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
+          <t>RX IS IN PHYSICIANS OFFICE BUILDING</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3956,21 +3912,9 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3983,20 +3927,32 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>RX IS IN PHYSICIANS OFFICE BUILDING</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -4016,34 +3972,51 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>Katherine</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>Equip</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4057,51 +4030,35 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>Sue</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>Driver,
 Optima</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4121,22 +4078,9 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4145,7 +4089,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>THOMPSON'S COUNTY MARKET, OCONTO - LIFO</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4176,7 +4120,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>THOMPSON'S COUNTY MARKET, OCONTO - LIFO</t>
+          <t>722 BRAZEAU AVE #41</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4207,7 +4151,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>722 BRAZEAU AVE #41</t>
+          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4236,11 +4180,7 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
-        </is>
-      </c>
+      <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -4266,9 +4206,21 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4295,17 +4247,17 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>meet Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -4334,17 +4286,17 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>meet Michelle @ Point Target</t>
+          <t>Driver, Van</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
@@ -4373,19 +4325,15 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Driver, Van</t>
-        </is>
-      </c>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4412,12 +4360,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4447,15 +4395,19 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr"/>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>meet Michelle @ Point Target</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4482,19 +4434,15 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>meet Michelle @ Point Target</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4521,12 +4469,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4556,15 +4504,19 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Driver *(also pick up Trevor)</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4591,19 +4543,15 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Driver *(also pick up Trevor)</t>
-        </is>
-      </c>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -4630,56 +4578,21 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>meet Michelle @ Point Target</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>meet Michelle @ Point Target</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -2841,7 +2841,12 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1656,16 +1656,8 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -1803,7 +1795,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BROWN DEER PARK N RIDE:
+1189 W BROWN DEER RD, RIVER HILLS, WI</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1876,8 +1873,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BROWN DEER PARK N RIDE:
-1189 W BROWN DEER RD, RIVER HILLS, WI</t>
+          <t>4:30 AM MEET AT BROWN DEER RD PARK AND RIDE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1952,7 +1948,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4:30 AM MEET AT BROWN DEER RD PARK AND RIDE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -2019,7 +2015,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2086,7 +2082,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #383, DEPERE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2155,7 +2151,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #383, DEPERE</t>
+          <t>575 SWAN ROAD</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2202,7 +2198,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>575 SWAN ROAD</t>
+          <t>https://goo.gl/maps/YM5hDJLPMhE2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2249,7 +2245,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YM5hDJLPMhE2</t>
+          <t>BE AWARE THAT THE MEET IS AT BROWN DEER RD PARK N RIDE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2302,11 +2298,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>BE AWARE THAT THE MEET IS AT BROWN DEER RD PARK N RIDE</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2356,14 +2348,21 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>*Carlie and Sonia to meet at 4:30 am in Grafton:
-1660 County Hwy W, Grafton</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
@@ -2400,8 +2399,16 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Caitlin</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2441,17 +2448,17 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Trainer</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2497,15 +2504,20 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2540,18 +2552,17 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>@ Store w/ Sonia,
-Trainer</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2614,20 +2625,15 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2678,19 +2684,15 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2741,12 +2743,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2803,21 +2805,9 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store w/ Carlie</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2863,16 +2853,8 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -2463,12 +2463,7 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>*Carlie and Sonia to meet at 5:00 am in Grafton:
-1660 County Hwy W, Grafton</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2519,9 +2514,23 @@
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>@ Store,
+Wht Camry,
+Equip</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2568,21 +2577,15 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store,
-Wht Camry,
-Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2637,15 +2640,19 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2696,17 +2703,18 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>@ Store w/ Sonia</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2755,20 +2763,15 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
@@ -2811,12 +2814,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2859,17 +2862,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2922,12 +2925,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2986,12 +2989,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3054,12 +3057,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3123,12 +3126,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3186,12 +3189,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3245,12 +3248,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3304,12 +3307,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3369,21 +3372,9 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3493,7 +3484,11 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3542,7 +3537,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3601,7 +3596,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3661,7 +3656,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3721,7 +3716,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3780,7 +3775,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3837,11 +3832,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3883,9 +3874,21 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
@@ -3916,17 +3919,18 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3957,22 +3961,9 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -2822,7 +2822,11 @@
           <t>Sonia</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>@ Store, Until 10:45</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +674,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>White Camry oil change this day</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -3421,7 +3425,7 @@
       <c r="W50" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3994,11 +3998,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4038,543 +4038,10 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>THOMPSON'S COUNTY MARKET, OCONTO - LIFO</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>722 BRAZEAU AVE #41</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>meet Michelle @ Point Target</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>Driver, Van</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>meet Michelle @ Point Target</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Driver *(also pick up Trevor)</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>meet Michelle @ Point Target</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -2784,12 +2784,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Santa Fe, Equip</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2954,10 +2954,15 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3018,15 +3023,10 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3086,13 +3086,13 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Wht Camry</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1558,7 +1558,8 @@
       <c r="S20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+DC5 bags*</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -621,7 +621,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Katheirne </t>
+          <t xml:space="preserve">Katherine </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2036,12 +2036,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2101,22 +2102,9 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2130,7 +2118,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 12:30</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2217,7 +2205,11 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -2266,7 +2258,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2317,7 +2309,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2380,7 +2372,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #396, FORT ATKINSON</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2427,7 +2419,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #396, FORT ATKINSON</t>
+          <t>1505 MADISON AVENUE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2474,7 +2466,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1505 MADISON AVENUE</t>
+          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2540,7 +2532,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AXaUiQoEDp72</t>
+          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2595,7 +2587,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>This manager is very recount happy, so just be prepared. You can set up on either Reg #1 or Reg #2</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2660,11 +2652,7 @@
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2723,9 +2711,21 @@
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store, Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2780,17 +2780,18 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store, Santa Fe, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2835,20 +2836,15 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2887,15 +2883,20 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2950,20 +2951,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3019,15 +3015,20 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3082,20 +3083,15 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3151,12 +3147,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3214,12 +3210,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3273,12 +3269,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3332,12 +3328,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3385,16 +3381,8 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
@@ -3501,7 +3489,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3554,7 +3546,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3613,7 +3605,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3673,7 +3665,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3733,7 +3725,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3792,7 +3784,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3847,7 +3839,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
+          <t>RX IS IN PHYSICIANS OFFICE BUILDING</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3900,11 +3892,7 @@
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>RX IS IN PHYSICIANS OFFICE BUILDING</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3943,9 +3931,21 @@
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
@@ -3976,17 +3976,18 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -4004,46 +4005,6 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1306,10 +1306,14 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1402,14 +1406,10 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1489,10 +1489,14 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1570,14 +1574,10 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1649,10 +1649,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1716,14 +1720,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1863,10 +1863,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1938,7 +1942,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -2001,12 +2005,12 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2069,14 +2073,10 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2129,10 +2129,14 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2177,9 +2181,21 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2228,8 +2244,16 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2280,11 +2304,7 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2331,11 +2351,7 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2384,7 +2400,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2431,7 +2447,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>975 PORT WASHINGTON ROAD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2482,7 +2498,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
+          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2546,7 +2562,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>975 PORT WASHINGTON ROAD</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2600,21 +2620,13 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2663,16 +2675,8 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2737,15 +2741,19 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2803,8 +2811,16 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2850,8 +2866,16 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2915,11 +2939,7 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2979,11 +2999,7 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -3049,7 +3065,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3113,7 +3129,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3176,7 +3192,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3235,7 +3251,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+          <t>FESTIVAL #2709, FORT ATKINSON</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3296,7 +3312,11 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>328 WASHINGTON ST - LIFO</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3350,21 +3370,13 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3401,22 +3413,9 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3455,17 +3454,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>work w/ Ashley</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3514,15 +3513,20 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3569,17 +3573,17 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Ashley</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3628,20 +3632,15 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3689,12 +3688,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3748,17 +3747,18 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3807,12 +3807,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3850,12 +3850,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3899,9 +3899,21 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3955,9 +3967,21 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1489,14 +1489,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1574,10 +1570,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1649,14 +1649,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1720,7 +1716,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1787,10 +1783,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1863,14 +1863,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1942,10 +1938,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -2005,14 +2005,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -2073,10 +2069,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2188,14 +2188,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2244,16 +2240,8 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2351,7 +2339,11 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2400,7 +2392,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2447,7 +2439,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2498,7 +2490,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
+          <t>975 PORT WASHINGTON ROAD</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2564,7 +2556,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>975 PORT WASHINGTON ROAD</t>
+          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2621,11 +2613,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2675,9 +2663,21 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2741,19 +2741,15 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2813,12 +2809,12 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2866,16 +2862,8 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2999,7 +2987,11 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -3065,7 +3057,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE MEET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3129,7 +3121,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3192,7 +3184,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2709, FORT ATKINSON</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3251,7 +3243,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON</t>
+          <t>328 WASHINGTON ST - LIFO</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3314,7 +3306,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST - LIFO</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3371,11 +3363,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3413,9 +3401,21 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3454,17 +3454,18 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3513,18 +3514,17 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>work w/ Ashley</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3573,19 +3573,15 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>work w/ Ashley</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3632,15 +3628,19 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3688,17 +3688,18 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3747,18 +3748,17 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3807,12 +3807,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3850,12 +3850,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3901,12 +3901,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3967,21 +3967,9 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>

--- a/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
+++ b/10-12-25 to 10-18-25 Milwaukee Schedule.xlsx
@@ -1306,14 +1306,10 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>1st Day, work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1406,7 +1402,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1489,10 +1485,14 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1570,12 +1570,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>1st Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1716,10 +1716,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1783,14 +1787,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1863,10 +1863,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1938,14 +1942,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -2005,10 +2005,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -2069,12 +2073,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2129,14 +2133,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2181,16 +2181,8 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2292,7 +2284,11 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2341,7 +2337,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2392,7 +2388,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2439,7 +2435,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
+          <t>975 PORT WASHINGTON ROAD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2490,7 +2486,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>975 PORT WASHINGTON ROAD</t>
+          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2554,11 +2550,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2612,9 +2604,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2665,19 +2669,15 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2807,16 +2807,8 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2927,7 +2919,11 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2989,7 +2985,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE MEET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3057,7 +3053,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3121,7 +3117,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2709, FORT ATKINSON</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3184,7 +3180,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON</t>
+          <t>328 WASHINGTON ST - LIFO</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3243,7 +3239,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST - LIFO</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3304,11 +3300,7 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3362,9 +3354,21 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3403,17 +3407,18 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3454,18 +3459,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>work w/ Ashley</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3514,19 +3518,15 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>work w/ Ashley</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3573,15 +3573,19 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3628,17 +3632,18 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3688,18 +3693,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3748,12 +3752,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3807,12 +3811,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3850,12 +3854,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3899,21 +3903,9 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
